--- a/mcmaster_excel/High-Profile_Narrow_Fillister_Head_Phillips_Screws.xlsx
+++ b/mcmaster_excel/High-Profile_Narrow_Fillister_Head_Phillips_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,129 +434,97 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.140"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.083"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>80,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>91737A311</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>$4.41</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2-56</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -596,12 +564,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>91737A047</t>
+          <t>91737A311</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>$4.41</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -618,7 +586,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -658,12 +626,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>91737A051</t>
+          <t>91737A047</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -680,7 +648,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -720,12 +688,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>91737A053</t>
+          <t>91737A051</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -742,7 +710,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -782,12 +750,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>91737A054</t>
+          <t>91737A053</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -804,7 +772,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -814,12 +782,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.183"</t>
+          <t>0.140"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.107"</t>
+          <t>0.083"</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -844,17 +812,17 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>91737A069</t>
+          <t>91737A054</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>4-40</t>
+          <t>2-56</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -866,7 +834,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -906,12 +874,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>91737A072</t>
+          <t>91737A069</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -928,7 +896,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -968,12 +936,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>91737A076</t>
+          <t>91737A072</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -990,7 +958,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1030,12 +998,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>91737A079</t>
+          <t>91737A076</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1052,7 +1020,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1092,12 +1060,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>91737A084</t>
+          <t>91737A079</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1114,7 +1082,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1154,12 +1122,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>91737A312</t>
+          <t>91737A084</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>7.21</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1176,7 +1144,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1186,17 +1154,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.226"</t>
+          <t>0.183"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.107"</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1216,17 +1184,17 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>91737A105</t>
+          <t>91737A312</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1238,7 +1206,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1278,12 +1246,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>91737A106</t>
+          <t>91737A105</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1300,7 +1268,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1340,12 +1308,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>91737A107</t>
+          <t>91737A106</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1362,7 +1330,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1402,12 +1370,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>91737A109</t>
+          <t>91737A107</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1424,7 +1392,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1464,12 +1432,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>91737A114</t>
+          <t>91737A109</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>9.59</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1486,7 +1454,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1526,12 +1494,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>91737A313</t>
+          <t>91737A114</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>10.04</t>
+          <t>9.59</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1548,7 +1516,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1558,12 +1526,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.226"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.156"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1588,17 +1556,17 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>91737A123</t>
+          <t>91737A313</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>10.38</t>
+          <t>10.04</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1610,7 +1578,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1650,12 +1618,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>91737A126</t>
+          <t>91737A123</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>10.38</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1672,7 +1640,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1712,12 +1680,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>91737A125</t>
+          <t>91737A126</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>11.40</t>
+          <t>11.11</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1734,7 +1702,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1774,12 +1742,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>91737A127</t>
+          <t>91737A125</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>11.61</t>
+          <t>11.40</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1796,7 +1764,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1831,17 +1799,17 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>91737A128</t>
+          <t>91737A127</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>8.59</t>
+          <t>11.61</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1858,7 +1826,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1898,12 +1866,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>91737A129</t>
+          <t>91737A128</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>8.59</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1920,7 +1888,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1960,12 +1928,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>91737A133</t>
+          <t>91737A129</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1982,7 +1950,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1992,12 +1960,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.313"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.180"</t>
+          <t>0.156"</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2022,17 +1990,17 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>91737A150</t>
+          <t>91737A133</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>8.45</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2044,7 +2012,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2084,12 +2052,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>91737A152</t>
+          <t>91737A150</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>9.54</t>
+          <t>8.45</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2106,7 +2074,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2146,12 +2114,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>91737A156</t>
+          <t>91737A152</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>10.70</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2168,7 +2136,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2203,22 +2171,22 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>91737A203</t>
+          <t>91737A156</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>12.69</t>
+          <t>10.70</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2230,7 +2198,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2265,17 +2233,17 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>91737A205</t>
+          <t>91737A203</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>8.45</t>
+          <t>12.69</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2292,7 +2260,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2332,12 +2300,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>91737A207</t>
+          <t>91737A205</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>9.54</t>
+          <t>8.45</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2354,7 +2322,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2394,12 +2362,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>91737A210</t>
+          <t>91737A207</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>10.70</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2416,7 +2384,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2456,12 +2424,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>91737A314</t>
+          <t>91737A210</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>11.71</t>
+          <t>10.70</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2478,7 +2446,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2488,17 +2456,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.414"</t>
+          <t>0.313"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.237"</t>
+          <t>0.180"</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2513,22 +2481,22 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>91737A252</t>
+          <t>91737A314</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>11.71</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2540,7 +2508,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2580,12 +2548,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>91737A256</t>
+          <t>91737A252</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>9.63</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2602,7 +2570,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2642,12 +2610,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>91737A259</t>
+          <t>91737A256</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>11.10</t>
+          <t>9.63</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2664,60 +2632,122 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>1"</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0.414"</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.237"</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>91737A259</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>1 1/2"</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>0.414"</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>0.237"</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>No. 3</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>91737A315</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>12.98</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
         </is>
